--- a/Code/Results/Cases/Case_3_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009024210999555</v>
+        <v>1.035267931653078</v>
       </c>
       <c r="D2">
-        <v>1.027908672576539</v>
+        <v>1.044069565816396</v>
       </c>
       <c r="E2">
-        <v>1.014209506852226</v>
+        <v>1.034341655449683</v>
       </c>
       <c r="F2">
-        <v>1.02871546907829</v>
+        <v>1.05282291906517</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045871201063233</v>
+        <v>1.038690198370736</v>
       </c>
       <c r="J2">
-        <v>1.030938319381918</v>
+        <v>1.040382636490932</v>
       </c>
       <c r="K2">
-        <v>1.038992419740647</v>
+        <v>1.046841652950761</v>
       </c>
       <c r="L2">
-        <v>1.025474367467211</v>
+        <v>1.037141406624156</v>
       </c>
       <c r="M2">
-        <v>1.039788738077527</v>
+        <v>1.055570587335104</v>
       </c>
       <c r="N2">
-        <v>1.032402370045722</v>
+        <v>1.041860099168306</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013135692662735</v>
+        <v>1.036141159482062</v>
       </c>
       <c r="D3">
-        <v>1.031161536536902</v>
+        <v>1.044788307787412</v>
       </c>
       <c r="E3">
-        <v>1.017473214610866</v>
+        <v>1.035082130898107</v>
       </c>
       <c r="F3">
-        <v>1.032875804645708</v>
+        <v>1.053773996054072</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04708466176094</v>
+        <v>1.038901160308511</v>
       </c>
       <c r="J3">
-        <v>1.033274559887064</v>
+        <v>1.040899726929264</v>
       </c>
       <c r="K3">
-        <v>1.041410640102383</v>
+        <v>1.047371799504011</v>
       </c>
       <c r="L3">
-        <v>1.027887299318214</v>
+        <v>1.03769123293269</v>
       </c>
       <c r="M3">
-        <v>1.043104628318943</v>
+        <v>1.056334232298374</v>
       </c>
       <c r="N3">
-        <v>1.034741928280352</v>
+        <v>1.042377923934371</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0157458563683</v>
+        <v>1.036706773485832</v>
       </c>
       <c r="D4">
-        <v>1.03322945840202</v>
+        <v>1.045253893726203</v>
       </c>
       <c r="E4">
-        <v>1.019550907164576</v>
+        <v>1.035562136944138</v>
       </c>
       <c r="F4">
-        <v>1.035522440968124</v>
+        <v>1.054390455769006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047846752031357</v>
+        <v>1.039036762942801</v>
       </c>
       <c r="J4">
-        <v>1.034755181136429</v>
+        <v>1.041234247680258</v>
       </c>
       <c r="K4">
-        <v>1.042942715972647</v>
+        <v>1.047714679348877</v>
       </c>
       <c r="L4">
-        <v>1.029418960220379</v>
+        <v>1.038047209457395</v>
       </c>
       <c r="M4">
-        <v>1.045210241855747</v>
+        <v>1.056828785558063</v>
       </c>
       <c r="N4">
-        <v>1.03622465218172</v>
+        <v>1.042712919743201</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016831531160339</v>
+        <v>1.036944694408423</v>
       </c>
       <c r="D5">
-        <v>1.034090236695761</v>
+        <v>1.045449746989361</v>
       </c>
       <c r="E5">
-        <v>1.020416444449523</v>
+        <v>1.035764137870276</v>
       </c>
       <c r="F5">
-        <v>1.036624574234603</v>
+        <v>1.054649864993586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048161720816317</v>
+        <v>1.039093553267368</v>
       </c>
       <c r="J5">
-        <v>1.035370396183107</v>
+        <v>1.041374861988907</v>
       </c>
       <c r="K5">
-        <v>1.043579186260306</v>
+        <v>1.047858786426942</v>
       </c>
       <c r="L5">
-        <v>1.030055967022497</v>
+        <v>1.038196909143259</v>
       </c>
       <c r="M5">
-        <v>1.046086151180902</v>
+        <v>1.057036795775987</v>
       </c>
       <c r="N5">
-        <v>1.036840740904331</v>
+        <v>1.042853733740298</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017013149275165</v>
+        <v>1.036984650359682</v>
       </c>
       <c r="D6">
-        <v>1.034234269537525</v>
+        <v>1.045482638659276</v>
       </c>
       <c r="E6">
-        <v>1.02056131432313</v>
+        <v>1.035798066769526</v>
       </c>
       <c r="F6">
-        <v>1.036809020721982</v>
+        <v>1.054693435530414</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048214291263945</v>
+        <v>1.039103075867855</v>
       </c>
       <c r="J6">
-        <v>1.035473274787016</v>
+        <v>1.041398470648914</v>
       </c>
       <c r="K6">
-        <v>1.043685611784067</v>
+        <v>1.047882980281842</v>
       </c>
       <c r="L6">
-        <v>1.030162524070099</v>
+        <v>1.038222047108451</v>
       </c>
       <c r="M6">
-        <v>1.046232683401132</v>
+        <v>1.057071727430246</v>
       </c>
       <c r="N6">
-        <v>1.036943765607658</v>
+        <v>1.04287737592731</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015760408433818</v>
+        <v>1.036709952061061</v>
       </c>
       <c r="D7">
-        <v>1.033240993527941</v>
+        <v>1.045256510253904</v>
       </c>
       <c r="E7">
-        <v>1.019562503331053</v>
+        <v>1.035564835281505</v>
       </c>
       <c r="F7">
-        <v>1.035537208579516</v>
+        <v>1.054393921029216</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047850981782259</v>
+        <v>1.039037522631445</v>
       </c>
       <c r="J7">
-        <v>1.034763429847846</v>
+        <v>1.041236126648526</v>
       </c>
       <c r="K7">
-        <v>1.042951250169853</v>
+        <v>1.047716605071846</v>
       </c>
       <c r="L7">
-        <v>1.029427498804447</v>
+        <v>1.038049209568188</v>
       </c>
       <c r="M7">
-        <v>1.045221981938354</v>
+        <v>1.056831564609556</v>
       </c>
       <c r="N7">
-        <v>1.036232912607254</v>
+        <v>1.04271480137982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010424348151846</v>
+        <v>1.035562922735283</v>
       </c>
       <c r="D8">
-        <v>1.029015791942748</v>
+        <v>1.044312361094232</v>
       </c>
       <c r="E8">
-        <v>1.015319715769344</v>
+        <v>1.034591721695937</v>
       </c>
       <c r="F8">
-        <v>1.030131086341177</v>
+        <v>1.053144121730346</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046286150470725</v>
+        <v>1.038761680707023</v>
       </c>
       <c r="J8">
-        <v>1.031734423864888</v>
+        <v>1.040557403713378</v>
       </c>
       <c r="K8">
-        <v>1.039816562244583</v>
+        <v>1.047020850954146</v>
       </c>
       <c r="L8">
-        <v>1.026296094536143</v>
+        <v>1.037327180401601</v>
       </c>
       <c r="M8">
-        <v>1.040917813052255</v>
+        <v>1.055828576077271</v>
       </c>
       <c r="N8">
-        <v>1.033199605088369</v>
+        <v>1.042035114580254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000618333280624</v>
+        <v>1.033546192732641</v>
       </c>
       <c r="D9">
-        <v>1.021275699939077</v>
+        <v>1.042652640191662</v>
       </c>
       <c r="E9">
-        <v>1.007570108648255</v>
+        <v>1.032883698407635</v>
       </c>
       <c r="F9">
-        <v>1.020240689838097</v>
+        <v>1.050949924949621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043346300396623</v>
+        <v>1.03826871798316</v>
       </c>
       <c r="J9">
-        <v>1.026149275484811</v>
+        <v>1.039360911061332</v>
       </c>
       <c r="K9">
-        <v>1.034032773381155</v>
+        <v>1.045793667838288</v>
       </c>
       <c r="L9">
-        <v>1.0205415485938</v>
+        <v>1.036056475586248</v>
       </c>
       <c r="M9">
-        <v>1.033013694989539</v>
+        <v>1.054064493177221</v>
       </c>
       <c r="N9">
-        <v>1.027606525156967</v>
+        <v>1.040836922771402</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.993782677279033</v>
+        <v>1.03220480204414</v>
       </c>
       <c r="D10">
-        <v>1.015899562557186</v>
+        <v>1.041548937641578</v>
       </c>
       <c r="E10">
-        <v>1.002202638208954</v>
+        <v>1.031749636611004</v>
       </c>
       <c r="F10">
-        <v>1.013377844371818</v>
+        <v>1.049492677133147</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041255619440675</v>
+        <v>1.037935479170884</v>
       </c>
       <c r="J10">
-        <v>1.022245160877876</v>
+        <v>1.038562983266635</v>
       </c>
       <c r="K10">
-        <v>1.02998755928481</v>
+        <v>1.044974826966272</v>
       </c>
       <c r="L10">
-        <v>1.016532236900936</v>
+        <v>1.035210490286508</v>
       </c>
       <c r="M10">
-        <v>1.027509686840143</v>
+        <v>1.052890750636744</v>
       </c>
       <c r="N10">
-        <v>1.023696866259481</v>
+        <v>1.040037861827713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9907454736559221</v>
+        <v>1.031624716588843</v>
       </c>
       <c r="D11">
-        <v>1.013516106975652</v>
+        <v>1.041071701166554</v>
       </c>
       <c r="E11">
-        <v>0.9998266357975066</v>
+        <v>1.031259691757649</v>
       </c>
       <c r="F11">
-        <v>1.010336450617363</v>
+        <v>1.048863009647798</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040317360510641</v>
+        <v>1.037790100733798</v>
       </c>
       <c r="J11">
-        <v>1.020508384886774</v>
+        <v>1.038217422792985</v>
       </c>
       <c r="K11">
-        <v>1.028187552704955</v>
+        <v>1.044620104352176</v>
       </c>
       <c r="L11">
-        <v>1.014751822254113</v>
+        <v>1.034844457842822</v>
       </c>
       <c r="M11">
-        <v>1.025066034199826</v>
+        <v>1.052383073860365</v>
       </c>
       <c r="N11">
-        <v>1.021957623847261</v>
+        <v>1.039691810618554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9896051078077462</v>
+        <v>1.031409360397334</v>
       </c>
       <c r="D12">
-        <v>1.012622049790602</v>
+        <v>1.040894537161199</v>
       </c>
       <c r="E12">
-        <v>0.9989359159615093</v>
+        <v>1.031077873056203</v>
       </c>
       <c r="F12">
-        <v>1.009195732048225</v>
+        <v>1.048629324633135</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039963716189855</v>
+        <v>1.037735938500183</v>
       </c>
       <c r="J12">
-        <v>1.019856007815917</v>
+        <v>1.038089059491466</v>
       </c>
       <c r="K12">
-        <v>1.027511361643163</v>
+        <v>1.044488321869361</v>
       </c>
       <c r="L12">
-        <v>1.014083530575516</v>
+        <v>1.034708541119317</v>
       </c>
       <c r="M12">
-        <v>1.024148851740163</v>
+        <v>1.052194585907447</v>
       </c>
       <c r="N12">
-        <v>1.021304320326135</v>
+        <v>1.039563265026423</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9898502828290993</v>
+        <v>1.031455549879085</v>
       </c>
       <c r="D13">
-        <v>1.012814229913811</v>
+        <v>1.04093253476083</v>
       </c>
       <c r="E13">
-        <v>0.999127354249024</v>
+        <v>1.031116866127297</v>
       </c>
       <c r="F13">
-        <v>1.009440927167744</v>
+        <v>1.048679441716194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040039809369452</v>
+        <v>1.037747563813404</v>
       </c>
       <c r="J13">
-        <v>1.01999627868115</v>
+        <v>1.03811659414296</v>
       </c>
       <c r="K13">
-        <v>1.027656755615022</v>
+        <v>1.04451659066774</v>
       </c>
       <c r="L13">
-        <v>1.01422720171438</v>
+        <v>1.034737693705819</v>
       </c>
       <c r="M13">
-        <v>1.024346027623352</v>
+        <v>1.052235013306989</v>
       </c>
       <c r="N13">
-        <v>1.021444790392086</v>
+        <v>1.03959083878028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9906514633899115</v>
+        <v>1.031606912858164</v>
       </c>
       <c r="D14">
-        <v>1.013442384470057</v>
+        <v>1.041057054626782</v>
       </c>
       <c r="E14">
-        <v>0.9997531774743115</v>
+        <v>1.031244659117442</v>
       </c>
       <c r="F14">
-        <v>1.01024238624932</v>
+        <v>1.048843689051022</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040288233946014</v>
+        <v>1.037785626972067</v>
       </c>
       <c r="J14">
-        <v>1.02045460917889</v>
+        <v>1.03820681237372</v>
       </c>
       <c r="K14">
-        <v>1.028131815242913</v>
+        <v>1.044609211627396</v>
       </c>
       <c r="L14">
-        <v>1.014696724982057</v>
+        <v>1.034833222018818</v>
       </c>
       <c r="M14">
-        <v>1.024990416007326</v>
+        <v>1.052367491628571</v>
       </c>
       <c r="N14">
-        <v>1.021903771771703</v>
+        <v>1.039681185131277</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9911434603161444</v>
+        <v>1.031700187649287</v>
       </c>
       <c r="D15">
-        <v>1.013828241616208</v>
+        <v>1.041133789105288</v>
       </c>
       <c r="E15">
-        <v>1.000137674000458</v>
+        <v>1.031323418991322</v>
       </c>
       <c r="F15">
-        <v>1.010734716297205</v>
+        <v>1.048944914008103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040440610811374</v>
+        <v>1.037809057464804</v>
       </c>
       <c r="J15">
-        <v>1.020736029963071</v>
+        <v>1.038262397941861</v>
       </c>
       <c r="K15">
-        <v>1.028423499813524</v>
+        <v>1.044666275484006</v>
       </c>
       <c r="L15">
-        <v>1.014985081289359</v>
+        <v>1.03489208603594</v>
       </c>
       <c r="M15">
-        <v>1.025386172681767</v>
+        <v>1.052449127308361</v>
       </c>
       <c r="N15">
-        <v>1.022185592205678</v>
+        <v>1.0397368496373</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9939825673634187</v>
+        <v>1.032243316229705</v>
       </c>
       <c r="D16">
-        <v>1.016056541509366</v>
+        <v>1.041580624592582</v>
       </c>
       <c r="E16">
-        <v>1.002359201567159</v>
+        <v>1.031782176194578</v>
       </c>
       <c r="F16">
-        <v>1.013578177686377</v>
+        <v>1.049534494261263</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041317178773693</v>
+        <v>1.037945104677105</v>
       </c>
       <c r="J16">
-        <v>1.022359424144213</v>
+        <v>1.038585915967899</v>
       </c>
       <c r="K16">
-        <v>1.030105973431893</v>
+        <v>1.04499836548756</v>
       </c>
       <c r="L16">
-        <v>1.01664943723083</v>
+        <v>1.035234788759958</v>
       </c>
       <c r="M16">
-        <v>1.027670555795631</v>
+        <v>1.052924455425934</v>
       </c>
       <c r="N16">
-        <v>1.023811291792763</v>
+        <v>1.040060827096044</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957423539923722</v>
+        <v>1.032584207007966</v>
       </c>
       <c r="D17">
-        <v>1.01743915445185</v>
+        <v>1.041861094275714</v>
       </c>
       <c r="E17">
-        <v>1.003738565965016</v>
+        <v>1.03207024118914</v>
       </c>
       <c r="F17">
-        <v>1.015342769721508</v>
+        <v>1.049904679731415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041858074523501</v>
+        <v>1.038030153766412</v>
       </c>
       <c r="J17">
-        <v>1.023365136235619</v>
+        <v>1.038788837025725</v>
       </c>
       <c r="K17">
-        <v>1.031148168568331</v>
+        <v>1.045206635017147</v>
       </c>
       <c r="L17">
-        <v>1.017681360580227</v>
+        <v>1.035449834241666</v>
       </c>
       <c r="M17">
-        <v>1.029087028232203</v>
+        <v>1.053222767544564</v>
       </c>
       <c r="N17">
-        <v>1.024818432110696</v>
+        <v>1.040264036325046</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9967613898097699</v>
+        <v>1.032783114676087</v>
       </c>
       <c r="D18">
-        <v>1.018240276682732</v>
+        <v>1.042024752421331</v>
       </c>
       <c r="E18">
-        <v>1.004538149477613</v>
+        <v>1.03223837174848</v>
       </c>
       <c r="F18">
-        <v>1.016365335485474</v>
+        <v>1.050120730910531</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042170400356255</v>
+        <v>1.038079656845172</v>
       </c>
       <c r="J18">
-        <v>1.023947308745414</v>
+        <v>1.038907192306998</v>
       </c>
       <c r="K18">
-        <v>1.031751415634655</v>
+        <v>1.045328099677791</v>
       </c>
       <c r="L18">
-        <v>1.018279005653866</v>
+        <v>1.035575294026248</v>
       </c>
       <c r="M18">
-        <v>1.029907437132579</v>
+        <v>1.053396822034577</v>
       </c>
       <c r="N18">
-        <v>1.02540143137223</v>
+        <v>1.040382559684395</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9971076139842746</v>
+        <v>1.032850949195391</v>
       </c>
       <c r="D19">
-        <v>1.018512545620654</v>
+        <v>1.042080566583113</v>
       </c>
       <c r="E19">
-        <v>1.004809953774577</v>
+        <v>1.032295718043562</v>
       </c>
       <c r="F19">
-        <v>1.016712884727692</v>
+        <v>1.05019442048411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042276363023665</v>
+        <v>1.038096518352085</v>
       </c>
       <c r="J19">
-        <v>1.024145070124882</v>
+        <v>1.038947547493446</v>
       </c>
       <c r="K19">
-        <v>1.031956328257697</v>
+        <v>1.04536951333422</v>
       </c>
       <c r="L19">
-        <v>1.018482073769572</v>
+        <v>1.035618077179306</v>
       </c>
       <c r="M19">
-        <v>1.030186204963559</v>
+        <v>1.053456179246277</v>
       </c>
       <c r="N19">
-        <v>1.02559947359554</v>
+        <v>1.040422972179836</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955543170079255</v>
+        <v>1.032547625212552</v>
       </c>
       <c r="D20">
-        <v>1.017291367474863</v>
+        <v>1.041830995805987</v>
       </c>
       <c r="E20">
-        <v>1.003591090601873</v>
+        <v>1.032039323449373</v>
       </c>
       <c r="F20">
-        <v>1.015154141513297</v>
+        <v>1.049864949055739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041800370618885</v>
+        <v>1.038021039620455</v>
       </c>
       <c r="J20">
-        <v>1.02325769451632</v>
+        <v>1.038767066040009</v>
       </c>
       <c r="K20">
-        <v>1.031036833855858</v>
+        <v>1.045184291255273</v>
       </c>
       <c r="L20">
-        <v>1.017571087559556</v>
+        <v>1.03542675905427</v>
       </c>
       <c r="M20">
-        <v>1.028935656622585</v>
+        <v>1.0531907558734</v>
       </c>
       <c r="N20">
-        <v>1.024710837811831</v>
+        <v>1.040242234422034</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9904158778123148</v>
+        <v>1.031562337092783</v>
       </c>
       <c r="D21">
-        <v>1.013257653003595</v>
+        <v>1.041020383777197</v>
       </c>
       <c r="E21">
-        <v>0.9995691167131089</v>
+        <v>1.031207022598622</v>
       </c>
       <c r="F21">
-        <v>1.010006684882825</v>
+        <v>1.048795316728379</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040215222288542</v>
+        <v>1.037774422793279</v>
       </c>
       <c r="J21">
-        <v>1.020319845298908</v>
+        <v>1.038180245530812</v>
       </c>
       <c r="K21">
-        <v>1.027992134143047</v>
+        <v>1.044581937680594</v>
       </c>
       <c r="L21">
-        <v>1.01455865691129</v>
+        <v>1.034805090086395</v>
       </c>
       <c r="M21">
-        <v>1.02480092554786</v>
+        <v>1.052328477684482</v>
       </c>
       <c r="N21">
-        <v>1.021768816511554</v>
+        <v>1.039654580560404</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9871141515429597</v>
+        <v>1.030943503975865</v>
       </c>
       <c r="D22">
-        <v>1.010670744391349</v>
+        <v>1.040511315793982</v>
       </c>
       <c r="E22">
-        <v>0.996992888524311</v>
+        <v>1.030684698492198</v>
       </c>
       <c r="F22">
-        <v>1.006706288991067</v>
+        <v>1.048123963209446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039188781108744</v>
+        <v>1.037618426824902</v>
       </c>
       <c r="J22">
-        <v>1.018430524475687</v>
+        <v>1.037811249659828</v>
       </c>
       <c r="K22">
-        <v>1.026033734748047</v>
+        <v>1.044203083280972</v>
       </c>
       <c r="L22">
-        <v>1.012624153187389</v>
+        <v>1.034414477453636</v>
       </c>
       <c r="M22">
-        <v>1.022146053455019</v>
+        <v>1.051786826330372</v>
       </c>
       <c r="N22">
-        <v>1.019876812636056</v>
+        <v>1.039285060672959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9888713971228259</v>
+        <v>1.031271496422807</v>
       </c>
       <c r="D23">
-        <v>1.012047060640051</v>
+        <v>1.04078112533564</v>
       </c>
       <c r="E23">
-        <v>0.9983632256241036</v>
+        <v>1.030961499271886</v>
       </c>
       <c r="F23">
-        <v>1.008462142867204</v>
+        <v>1.048479749265826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039735803742647</v>
+        <v>1.037701211958823</v>
       </c>
       <c r="J23">
-        <v>1.019436195776363</v>
+        <v>1.038006864627486</v>
       </c>
       <c r="K23">
-        <v>1.027076208100525</v>
+        <v>1.044403933165247</v>
       </c>
       <c r="L23">
-        <v>1.013653612109931</v>
+        <v>1.034621523985354</v>
       </c>
       <c r="M23">
-        <v>1.023558834388206</v>
+        <v>1.052073918351415</v>
       </c>
       <c r="N23">
-        <v>1.020883912105331</v>
+        <v>1.039480953436308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956393057077033</v>
+        <v>1.032564154729411</v>
       </c>
       <c r="D24">
-        <v>1.017358162499493</v>
+        <v>1.041844595808471</v>
       </c>
       <c r="E24">
-        <v>1.00365774372215</v>
+        <v>1.032053293514352</v>
       </c>
       <c r="F24">
-        <v>1.01523939511982</v>
+        <v>1.049882901241782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041826454311358</v>
+        <v>1.038025158234015</v>
       </c>
       <c r="J24">
-        <v>1.023306256510328</v>
+        <v>1.038776903427339</v>
       </c>
       <c r="K24">
-        <v>1.031087155560142</v>
+        <v>1.045194387487307</v>
       </c>
       <c r="L24">
-        <v>1.017620928328834</v>
+        <v>1.0354371856537</v>
       </c>
       <c r="M24">
-        <v>1.029004072816195</v>
+        <v>1.053205220402743</v>
       </c>
       <c r="N24">
-        <v>1.024759468769441</v>
+        <v>1.040252085779582</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003203908449462</v>
+        <v>1.034067026139857</v>
       </c>
       <c r="D25">
-        <v>1.023313409826518</v>
+        <v>1.043081235135971</v>
       </c>
       <c r="E25">
-        <v>1.009607677227263</v>
+        <v>1.033324456122477</v>
       </c>
       <c r="F25">
-        <v>1.022843174741932</v>
+        <v>1.051516206353915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044128747560391</v>
+        <v>1.038396973717456</v>
       </c>
       <c r="J25">
-        <v>1.027623927295205</v>
+        <v>1.039670284930376</v>
       </c>
       <c r="K25">
-        <v>1.035560282441845</v>
+        <v>1.046111056023803</v>
       </c>
       <c r="L25">
-        <v>1.02205865498322</v>
+        <v>1.036384785714688</v>
       </c>
       <c r="M25">
-        <v>1.035096935049569</v>
+        <v>1.054520149605759</v>
       </c>
       <c r="N25">
-        <v>1.029083271142077</v>
+        <v>1.041146735986826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035267931653078</v>
+        <v>1.009024210999556</v>
       </c>
       <c r="D2">
-        <v>1.044069565816396</v>
+        <v>1.02790867257654</v>
       </c>
       <c r="E2">
-        <v>1.034341655449683</v>
+        <v>1.014209506852226</v>
       </c>
       <c r="F2">
-        <v>1.05282291906517</v>
+        <v>1.028715469078292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038690198370736</v>
+        <v>1.045871201063234</v>
       </c>
       <c r="J2">
-        <v>1.040382636490932</v>
+        <v>1.030938319381918</v>
       </c>
       <c r="K2">
-        <v>1.046841652950761</v>
+        <v>1.038992419740648</v>
       </c>
       <c r="L2">
-        <v>1.037141406624156</v>
+        <v>1.025474367467212</v>
       </c>
       <c r="M2">
-        <v>1.055570587335104</v>
+        <v>1.039788738077528</v>
       </c>
       <c r="N2">
-        <v>1.041860099168306</v>
+        <v>1.032402370045723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036141159482062</v>
+        <v>1.013135692662735</v>
       </c>
       <c r="D3">
-        <v>1.044788307787412</v>
+        <v>1.031161536536901</v>
       </c>
       <c r="E3">
-        <v>1.035082130898107</v>
+        <v>1.017473214610866</v>
       </c>
       <c r="F3">
-        <v>1.053773996054072</v>
+        <v>1.032875804645707</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038901160308511</v>
+        <v>1.04708466176094</v>
       </c>
       <c r="J3">
-        <v>1.040899726929264</v>
+        <v>1.033274559887063</v>
       </c>
       <c r="K3">
-        <v>1.047371799504011</v>
+        <v>1.041410640102382</v>
       </c>
       <c r="L3">
-        <v>1.03769123293269</v>
+        <v>1.027887299318213</v>
       </c>
       <c r="M3">
-        <v>1.056334232298374</v>
+        <v>1.043104628318942</v>
       </c>
       <c r="N3">
-        <v>1.042377923934371</v>
+        <v>1.034741928280352</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036706773485832</v>
+        <v>1.015745856368299</v>
       </c>
       <c r="D4">
-        <v>1.045253893726203</v>
+        <v>1.033229458402019</v>
       </c>
       <c r="E4">
-        <v>1.035562136944138</v>
+        <v>1.019550907164577</v>
       </c>
       <c r="F4">
-        <v>1.054390455769006</v>
+        <v>1.035522440968124</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039036762942801</v>
+        <v>1.047846752031357</v>
       </c>
       <c r="J4">
-        <v>1.041234247680258</v>
+        <v>1.034755181136428</v>
       </c>
       <c r="K4">
-        <v>1.047714679348877</v>
+        <v>1.042942715972647</v>
       </c>
       <c r="L4">
-        <v>1.038047209457395</v>
+        <v>1.029418960220379</v>
       </c>
       <c r="M4">
-        <v>1.056828785558063</v>
+        <v>1.045210241855747</v>
       </c>
       <c r="N4">
-        <v>1.042712919743201</v>
+        <v>1.03622465218172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036944694408423</v>
+        <v>1.016831531160338</v>
       </c>
       <c r="D5">
-        <v>1.045449746989361</v>
+        <v>1.034090236695761</v>
       </c>
       <c r="E5">
-        <v>1.035764137870276</v>
+        <v>1.020416444449523</v>
       </c>
       <c r="F5">
-        <v>1.054649864993586</v>
+        <v>1.036624574234602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039093553267368</v>
+        <v>1.048161720816317</v>
       </c>
       <c r="J5">
-        <v>1.041374861988907</v>
+        <v>1.035370396183106</v>
       </c>
       <c r="K5">
-        <v>1.047858786426942</v>
+        <v>1.043579186260305</v>
       </c>
       <c r="L5">
-        <v>1.038196909143259</v>
+        <v>1.030055967022497</v>
       </c>
       <c r="M5">
-        <v>1.057036795775987</v>
+        <v>1.046086151180901</v>
       </c>
       <c r="N5">
-        <v>1.042853733740298</v>
+        <v>1.03684074090433</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036984650359682</v>
+        <v>1.017013149275165</v>
       </c>
       <c r="D6">
-        <v>1.045482638659276</v>
+        <v>1.034234269537525</v>
       </c>
       <c r="E6">
-        <v>1.035798066769526</v>
+        <v>1.02056131432313</v>
       </c>
       <c r="F6">
-        <v>1.054693435530414</v>
+        <v>1.036809020721982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039103075867855</v>
+        <v>1.048214291263945</v>
       </c>
       <c r="J6">
-        <v>1.041398470648914</v>
+        <v>1.035473274787016</v>
       </c>
       <c r="K6">
-        <v>1.047882980281842</v>
+        <v>1.043685611784068</v>
       </c>
       <c r="L6">
-        <v>1.038222047108451</v>
+        <v>1.030162524070098</v>
       </c>
       <c r="M6">
-        <v>1.057071727430246</v>
+        <v>1.046232683401132</v>
       </c>
       <c r="N6">
-        <v>1.04287737592731</v>
+        <v>1.036943765607658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036709952061061</v>
+        <v>1.015760408433818</v>
       </c>
       <c r="D7">
-        <v>1.045256510253904</v>
+        <v>1.033240993527941</v>
       </c>
       <c r="E7">
-        <v>1.035564835281505</v>
+        <v>1.019562503331053</v>
       </c>
       <c r="F7">
-        <v>1.054393921029216</v>
+        <v>1.035537208579516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039037522631445</v>
+        <v>1.047850981782259</v>
       </c>
       <c r="J7">
-        <v>1.041236126648526</v>
+        <v>1.034763429847845</v>
       </c>
       <c r="K7">
-        <v>1.047716605071846</v>
+        <v>1.042951250169853</v>
       </c>
       <c r="L7">
-        <v>1.038049209568188</v>
+        <v>1.029427498804447</v>
       </c>
       <c r="M7">
-        <v>1.056831564609556</v>
+        <v>1.045221981938353</v>
       </c>
       <c r="N7">
-        <v>1.04271480137982</v>
+        <v>1.036232912607253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035562922735283</v>
+        <v>1.010424348151846</v>
       </c>
       <c r="D8">
-        <v>1.044312361094232</v>
+        <v>1.029015791942747</v>
       </c>
       <c r="E8">
-        <v>1.034591721695937</v>
+        <v>1.015319715769343</v>
       </c>
       <c r="F8">
-        <v>1.053144121730346</v>
+        <v>1.030131086341176</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038761680707023</v>
+        <v>1.046286150470725</v>
       </c>
       <c r="J8">
-        <v>1.040557403713378</v>
+        <v>1.031734423864888</v>
       </c>
       <c r="K8">
-        <v>1.047020850954146</v>
+        <v>1.039816562244582</v>
       </c>
       <c r="L8">
-        <v>1.037327180401601</v>
+        <v>1.026296094536143</v>
       </c>
       <c r="M8">
-        <v>1.055828576077271</v>
+        <v>1.040917813052254</v>
       </c>
       <c r="N8">
-        <v>1.042035114580254</v>
+        <v>1.033199605088369</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033546192732641</v>
+        <v>1.000618333280623</v>
       </c>
       <c r="D9">
-        <v>1.042652640191662</v>
+        <v>1.021275699939077</v>
       </c>
       <c r="E9">
-        <v>1.032883698407635</v>
+        <v>1.007570108648254</v>
       </c>
       <c r="F9">
-        <v>1.050949924949621</v>
+        <v>1.020240689838096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03826871798316</v>
+        <v>1.043346300396623</v>
       </c>
       <c r="J9">
-        <v>1.039360911061332</v>
+        <v>1.02614927548481</v>
       </c>
       <c r="K9">
-        <v>1.045793667838288</v>
+        <v>1.034032773381155</v>
       </c>
       <c r="L9">
-        <v>1.036056475586248</v>
+        <v>1.020541548593799</v>
       </c>
       <c r="M9">
-        <v>1.054064493177221</v>
+        <v>1.033013694989539</v>
       </c>
       <c r="N9">
-        <v>1.040836922771402</v>
+        <v>1.027606525156966</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03220480204414</v>
+        <v>0.9937826772790331</v>
       </c>
       <c r="D10">
-        <v>1.041548937641578</v>
+        <v>1.015899562557187</v>
       </c>
       <c r="E10">
-        <v>1.031749636611004</v>
+        <v>1.002202638208954</v>
       </c>
       <c r="F10">
-        <v>1.049492677133147</v>
+        <v>1.013377844371819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037935479170884</v>
+        <v>1.041255619440675</v>
       </c>
       <c r="J10">
-        <v>1.038562983266635</v>
+        <v>1.022245160877876</v>
       </c>
       <c r="K10">
-        <v>1.044974826966272</v>
+        <v>1.02998755928481</v>
       </c>
       <c r="L10">
-        <v>1.035210490286508</v>
+        <v>1.016532236900936</v>
       </c>
       <c r="M10">
-        <v>1.052890750636744</v>
+        <v>1.027509686840143</v>
       </c>
       <c r="N10">
-        <v>1.040037861827713</v>
+        <v>1.023696866259482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031624716588843</v>
+        <v>0.9907454736559218</v>
       </c>
       <c r="D11">
-        <v>1.041071701166554</v>
+        <v>1.013516106975651</v>
       </c>
       <c r="E11">
-        <v>1.031259691757649</v>
+        <v>0.9998266357975065</v>
       </c>
       <c r="F11">
-        <v>1.048863009647798</v>
+        <v>1.010336450617362</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037790100733798</v>
+        <v>1.040317360510641</v>
       </c>
       <c r="J11">
-        <v>1.038217422792985</v>
+        <v>1.020508384886773</v>
       </c>
       <c r="K11">
-        <v>1.044620104352176</v>
+        <v>1.028187552704955</v>
       </c>
       <c r="L11">
-        <v>1.034844457842822</v>
+        <v>1.014751822254113</v>
       </c>
       <c r="M11">
-        <v>1.052383073860365</v>
+        <v>1.025066034199826</v>
       </c>
       <c r="N11">
-        <v>1.039691810618554</v>
+        <v>1.021957623847261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031409360397334</v>
+        <v>0.9896051078077461</v>
       </c>
       <c r="D12">
-        <v>1.040894537161199</v>
+        <v>1.012622049790601</v>
       </c>
       <c r="E12">
-        <v>1.031077873056203</v>
+        <v>0.9989359159615092</v>
       </c>
       <c r="F12">
-        <v>1.048629324633135</v>
+        <v>1.009195732048225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037735938500183</v>
+        <v>1.039963716189855</v>
       </c>
       <c r="J12">
-        <v>1.038089059491466</v>
+        <v>1.019856007815917</v>
       </c>
       <c r="K12">
-        <v>1.044488321869361</v>
+        <v>1.027511361643163</v>
       </c>
       <c r="L12">
-        <v>1.034708541119317</v>
+        <v>1.014083530575515</v>
       </c>
       <c r="M12">
-        <v>1.052194585907447</v>
+        <v>1.024148851740162</v>
       </c>
       <c r="N12">
-        <v>1.039563265026423</v>
+        <v>1.021304320326135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031455549879085</v>
+        <v>0.9898502828290984</v>
       </c>
       <c r="D13">
-        <v>1.04093253476083</v>
+        <v>1.01281422991381</v>
       </c>
       <c r="E13">
-        <v>1.031116866127297</v>
+        <v>0.999127354249023</v>
       </c>
       <c r="F13">
-        <v>1.048679441716194</v>
+        <v>1.009440927167743</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037747563813404</v>
+        <v>1.040039809369452</v>
       </c>
       <c r="J13">
-        <v>1.03811659414296</v>
+        <v>1.019996278681149</v>
       </c>
       <c r="K13">
-        <v>1.04451659066774</v>
+        <v>1.027656755615021</v>
       </c>
       <c r="L13">
-        <v>1.034737693705819</v>
+        <v>1.014227201714379</v>
       </c>
       <c r="M13">
-        <v>1.052235013306989</v>
+        <v>1.024346027623351</v>
       </c>
       <c r="N13">
-        <v>1.03959083878028</v>
+        <v>1.021444790392085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031606912858164</v>
+        <v>0.9906514633899111</v>
       </c>
       <c r="D14">
-        <v>1.041057054626782</v>
+        <v>1.013442384470057</v>
       </c>
       <c r="E14">
-        <v>1.031244659117442</v>
+        <v>0.999753177474311</v>
       </c>
       <c r="F14">
-        <v>1.048843689051022</v>
+        <v>1.010242386249319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037785626972067</v>
+        <v>1.040288233946014</v>
       </c>
       <c r="J14">
-        <v>1.03820681237372</v>
+        <v>1.020454609178889</v>
       </c>
       <c r="K14">
-        <v>1.044609211627396</v>
+        <v>1.028131815242912</v>
       </c>
       <c r="L14">
-        <v>1.034833222018818</v>
+        <v>1.014696724982056</v>
       </c>
       <c r="M14">
-        <v>1.052367491628571</v>
+        <v>1.024990416007325</v>
       </c>
       <c r="N14">
-        <v>1.039681185131277</v>
+        <v>1.021903771771703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031700187649287</v>
+        <v>0.9911434603161453</v>
       </c>
       <c r="D15">
-        <v>1.041133789105288</v>
+        <v>1.013828241616208</v>
       </c>
       <c r="E15">
-        <v>1.031323418991322</v>
+        <v>1.000137674000458</v>
       </c>
       <c r="F15">
-        <v>1.048944914008103</v>
+        <v>1.010734716297206</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037809057464804</v>
+        <v>1.040440610811374</v>
       </c>
       <c r="J15">
-        <v>1.038262397941861</v>
+        <v>1.020736029963072</v>
       </c>
       <c r="K15">
-        <v>1.044666275484006</v>
+        <v>1.028423499813525</v>
       </c>
       <c r="L15">
-        <v>1.03489208603594</v>
+        <v>1.01498508128936</v>
       </c>
       <c r="M15">
-        <v>1.052449127308361</v>
+        <v>1.025386172681767</v>
       </c>
       <c r="N15">
-        <v>1.0397368496373</v>
+        <v>1.022185592205679</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032243316229705</v>
+        <v>0.9939825673634186</v>
       </c>
       <c r="D16">
-        <v>1.041580624592582</v>
+        <v>1.016056541509366</v>
       </c>
       <c r="E16">
-        <v>1.031782176194578</v>
+        <v>1.002359201567158</v>
       </c>
       <c r="F16">
-        <v>1.049534494261263</v>
+        <v>1.013578177686378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037945104677105</v>
+        <v>1.041317178773693</v>
       </c>
       <c r="J16">
-        <v>1.038585915967899</v>
+        <v>1.022359424144213</v>
       </c>
       <c r="K16">
-        <v>1.04499836548756</v>
+        <v>1.030105973431893</v>
       </c>
       <c r="L16">
-        <v>1.035234788759958</v>
+        <v>1.01664943723083</v>
       </c>
       <c r="M16">
-        <v>1.052924455425934</v>
+        <v>1.027670555795631</v>
       </c>
       <c r="N16">
-        <v>1.040060827096044</v>
+        <v>1.023811291792763</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032584207007966</v>
+        <v>0.9957423539923723</v>
       </c>
       <c r="D17">
-        <v>1.041861094275714</v>
+        <v>1.01743915445185</v>
       </c>
       <c r="E17">
-        <v>1.03207024118914</v>
+        <v>1.003738565965016</v>
       </c>
       <c r="F17">
-        <v>1.049904679731415</v>
+        <v>1.015342769721507</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038030153766412</v>
+        <v>1.041858074523501</v>
       </c>
       <c r="J17">
-        <v>1.038788837025725</v>
+        <v>1.023365136235619</v>
       </c>
       <c r="K17">
-        <v>1.045206635017147</v>
+        <v>1.031148168568331</v>
       </c>
       <c r="L17">
-        <v>1.035449834241666</v>
+        <v>1.017681360580227</v>
       </c>
       <c r="M17">
-        <v>1.053222767544564</v>
+        <v>1.029087028232202</v>
       </c>
       <c r="N17">
-        <v>1.040264036325046</v>
+        <v>1.024818432110696</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032783114676087</v>
+        <v>0.9967613898097701</v>
       </c>
       <c r="D18">
-        <v>1.042024752421331</v>
+        <v>1.018240276682733</v>
       </c>
       <c r="E18">
-        <v>1.03223837174848</v>
+        <v>1.004538149477613</v>
       </c>
       <c r="F18">
-        <v>1.050120730910531</v>
+        <v>1.016365335485475</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038079656845172</v>
+        <v>1.042170400356256</v>
       </c>
       <c r="J18">
-        <v>1.038907192306998</v>
+        <v>1.023947308745414</v>
       </c>
       <c r="K18">
-        <v>1.045328099677791</v>
+        <v>1.031751415634655</v>
       </c>
       <c r="L18">
-        <v>1.035575294026248</v>
+        <v>1.018279005653866</v>
       </c>
       <c r="M18">
-        <v>1.053396822034577</v>
+        <v>1.029907437132579</v>
       </c>
       <c r="N18">
-        <v>1.040382559684395</v>
+        <v>1.02540143137223</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032850949195391</v>
+        <v>0.9971076139842732</v>
       </c>
       <c r="D19">
-        <v>1.042080566583113</v>
+        <v>1.018512545620652</v>
       </c>
       <c r="E19">
-        <v>1.032295718043562</v>
+        <v>1.004809953774575</v>
       </c>
       <c r="F19">
-        <v>1.05019442048411</v>
+        <v>1.01671288472769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038096518352085</v>
+        <v>1.042276363023664</v>
       </c>
       <c r="J19">
-        <v>1.038947547493446</v>
+        <v>1.02414507012488</v>
       </c>
       <c r="K19">
-        <v>1.04536951333422</v>
+        <v>1.031956328257695</v>
       </c>
       <c r="L19">
-        <v>1.035618077179306</v>
+        <v>1.018482073769571</v>
       </c>
       <c r="M19">
-        <v>1.053456179246277</v>
+        <v>1.030186204963557</v>
       </c>
       <c r="N19">
-        <v>1.040422972179836</v>
+        <v>1.02559947359554</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032547625212552</v>
+        <v>0.9955543170079262</v>
       </c>
       <c r="D20">
-        <v>1.041830995805987</v>
+        <v>1.017291367474864</v>
       </c>
       <c r="E20">
-        <v>1.032039323449373</v>
+        <v>1.003591090601874</v>
       </c>
       <c r="F20">
-        <v>1.049864949055739</v>
+        <v>1.015154141513298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038021039620455</v>
+        <v>1.041800370618885</v>
       </c>
       <c r="J20">
-        <v>1.038767066040009</v>
+        <v>1.023257694516321</v>
       </c>
       <c r="K20">
-        <v>1.045184291255273</v>
+        <v>1.031036833855859</v>
       </c>
       <c r="L20">
-        <v>1.03542675905427</v>
+        <v>1.017571087559556</v>
       </c>
       <c r="M20">
-        <v>1.0531907558734</v>
+        <v>1.028935656622586</v>
       </c>
       <c r="N20">
-        <v>1.040242234422034</v>
+        <v>1.024710837811832</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031562337092783</v>
+        <v>0.9904158778123141</v>
       </c>
       <c r="D21">
-        <v>1.041020383777197</v>
+        <v>1.013257653003594</v>
       </c>
       <c r="E21">
-        <v>1.031207022598622</v>
+        <v>0.9995691167131084</v>
       </c>
       <c r="F21">
-        <v>1.048795316728379</v>
+        <v>1.010006684882824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037774422793279</v>
+        <v>1.040215222288541</v>
       </c>
       <c r="J21">
-        <v>1.038180245530812</v>
+        <v>1.020319845298907</v>
       </c>
       <c r="K21">
-        <v>1.044581937680594</v>
+        <v>1.027992134143047</v>
       </c>
       <c r="L21">
-        <v>1.034805090086395</v>
+        <v>1.014558656911289</v>
       </c>
       <c r="M21">
-        <v>1.052328477684482</v>
+        <v>1.02480092554786</v>
       </c>
       <c r="N21">
-        <v>1.039654580560404</v>
+        <v>1.021768816511553</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030943503975865</v>
+        <v>0.9871141515429595</v>
       </c>
       <c r="D22">
-        <v>1.040511315793982</v>
+        <v>1.010670744391349</v>
       </c>
       <c r="E22">
-        <v>1.030684698492198</v>
+        <v>0.996992888524311</v>
       </c>
       <c r="F22">
-        <v>1.048123963209446</v>
+        <v>1.006706288991067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037618426824902</v>
+        <v>1.039188781108744</v>
       </c>
       <c r="J22">
-        <v>1.037811249659828</v>
+        <v>1.018430524475687</v>
       </c>
       <c r="K22">
-        <v>1.044203083280972</v>
+        <v>1.026033734748047</v>
       </c>
       <c r="L22">
-        <v>1.034414477453636</v>
+        <v>1.012624153187389</v>
       </c>
       <c r="M22">
-        <v>1.051786826330372</v>
+        <v>1.022146053455019</v>
       </c>
       <c r="N22">
-        <v>1.039285060672959</v>
+        <v>1.019876812636056</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031271496422807</v>
+        <v>0.9888713971228261</v>
       </c>
       <c r="D23">
-        <v>1.04078112533564</v>
+        <v>1.012047060640051</v>
       </c>
       <c r="E23">
-        <v>1.030961499271886</v>
+        <v>0.998363225624104</v>
       </c>
       <c r="F23">
-        <v>1.048479749265826</v>
+        <v>1.008462142867204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037701211958823</v>
+        <v>1.039735803742647</v>
       </c>
       <c r="J23">
-        <v>1.038006864627486</v>
+        <v>1.019436195776363</v>
       </c>
       <c r="K23">
-        <v>1.044403933165247</v>
+        <v>1.027076208100526</v>
       </c>
       <c r="L23">
-        <v>1.034621523985354</v>
+        <v>1.013653612109931</v>
       </c>
       <c r="M23">
-        <v>1.052073918351415</v>
+        <v>1.023558834388207</v>
       </c>
       <c r="N23">
-        <v>1.039480953436308</v>
+        <v>1.020883912105332</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032564154729411</v>
+        <v>0.995639305707703</v>
       </c>
       <c r="D24">
-        <v>1.041844595808471</v>
+        <v>1.017358162499493</v>
       </c>
       <c r="E24">
-        <v>1.032053293514352</v>
+        <v>1.00365774372215</v>
       </c>
       <c r="F24">
-        <v>1.049882901241782</v>
+        <v>1.01523939511982</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038025158234015</v>
+        <v>1.041826454311357</v>
       </c>
       <c r="J24">
-        <v>1.038776903427339</v>
+        <v>1.023306256510328</v>
       </c>
       <c r="K24">
-        <v>1.045194387487307</v>
+        <v>1.031087155560142</v>
       </c>
       <c r="L24">
-        <v>1.0354371856537</v>
+        <v>1.017620928328834</v>
       </c>
       <c r="M24">
-        <v>1.053205220402743</v>
+        <v>1.029004072816195</v>
       </c>
       <c r="N24">
-        <v>1.040252085779582</v>
+        <v>1.024759468769441</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034067026139857</v>
+        <v>1.003203908449461</v>
       </c>
       <c r="D25">
-        <v>1.043081235135971</v>
+        <v>1.023313409826517</v>
       </c>
       <c r="E25">
-        <v>1.033324456122477</v>
+        <v>1.009607677227262</v>
       </c>
       <c r="F25">
-        <v>1.051516206353915</v>
+        <v>1.022843174741931</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038396973717456</v>
+        <v>1.044128747560391</v>
       </c>
       <c r="J25">
-        <v>1.039670284930376</v>
+        <v>1.027623927295204</v>
       </c>
       <c r="K25">
-        <v>1.046111056023803</v>
+        <v>1.035560282441844</v>
       </c>
       <c r="L25">
-        <v>1.036384785714688</v>
+        <v>1.022058654983219</v>
       </c>
       <c r="M25">
-        <v>1.054520149605759</v>
+        <v>1.035096935049568</v>
       </c>
       <c r="N25">
-        <v>1.041146735986826</v>
+        <v>1.029083271142076</v>
       </c>
     </row>
   </sheetData>
